--- a/web/WBTBSsystem/test_container.xlsx
+++ b/web/WBTBSsystem/test_container.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Y3_GRP\Web-Based-Tug-Boat-Scheduling-System\web\WBTBSsystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YSY\Desktop\GRP\CW\Web-Based-Tug-Boat-Scheduling-System\web\WBTBSsystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C18F18E-D9F0-4BD7-99F6-C42C71A113E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD3398E-6BB9-47E1-82F0-21F17ABC64F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="3315" windowWidth="16200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,37 +20,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>ContainerBoatID</t>
   </si>
   <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>ArrivalTime</t>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INBOUND</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BerthID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN0002</t>
+  </si>
+  <si>
+    <t>CN0003</t>
+  </si>
+  <si>
+    <t>CN0004</t>
+  </si>
+  <si>
+    <t>US0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>US0002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JP0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MY0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Tonnage</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>ArrivalTime</t>
-  </si>
-  <si>
-    <t>China</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>INBOUND</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BerthID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTBOUND</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>America</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -435,73 +493,239 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" s="3">
+        <v>45388.375</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45388.416666666664</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>300</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45389.385416666664</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45388.416666666664</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
-        <v>45357.916666666664</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>255</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45389.625</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>437</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45388.666666666664</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>368</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45388.541666666664</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45388.541666666664</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45388.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>288</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45389.458333333336</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/web/WBTBSsystem/test_container.xlsx
+++ b/web/WBTBSsystem/test_container.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YSY\Desktop\GRP\CW\Web-Based-Tug-Boat-Scheduling-System\web\WBTBSsystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD3398E-6BB9-47E1-82F0-21F17ABC64F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434A96D5-F9EC-40A2-908A-843FD751A72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="3315" windowWidth="16200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="1800" windowWidth="21600" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="114">
   <si>
     <t>ContainerBoatID</t>
   </si>
@@ -31,85 +31,337 @@
     <t>ArrivalTime</t>
   </si>
   <si>
+    <t>CN0002</t>
+  </si>
+  <si>
+    <t>CN0003</t>
+  </si>
+  <si>
+    <t>CN0004</t>
+  </si>
+  <si>
+    <t>Tonnage</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>BerthID</t>
+  </si>
+  <si>
+    <t>CN0001</t>
+  </si>
+  <si>
     <t>China</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>INBOUND</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BerthID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN0001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN0002</t>
-  </si>
-  <si>
-    <t>CN0003</t>
-  </si>
-  <si>
-    <t>CN0004</t>
+  </si>
+  <si>
+    <t>CN0005</t>
+  </si>
+  <si>
+    <t>CN0006</t>
+  </si>
+  <si>
+    <t>OUTBOUND</t>
+  </si>
+  <si>
+    <t>MY0001</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>US0001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>CN0007</t>
+  </si>
+  <si>
+    <t>CN0008</t>
+  </si>
+  <si>
+    <t>CN0009</t>
+  </si>
+  <si>
+    <t>CN0010</t>
+  </si>
+  <si>
+    <t>JP0001</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>JP0002</t>
+  </si>
+  <si>
+    <t>RU0001</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>KR0001</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>KR0002</t>
+  </si>
+  <si>
+    <t>CN0011</t>
+  </si>
+  <si>
+    <t>CN0012</t>
+  </si>
+  <si>
+    <t>CN0013</t>
+  </si>
+  <si>
+    <t>CN0014</t>
+  </si>
+  <si>
+    <t>CN0015</t>
+  </si>
+  <si>
+    <t>CN0016</t>
+  </si>
+  <si>
+    <t>MY0002</t>
+  </si>
+  <si>
+    <t>MY0003</t>
+  </si>
+  <si>
+    <t>CN0017</t>
+  </si>
+  <si>
+    <t>CN0018</t>
+  </si>
+  <si>
+    <t>CN0019</t>
+  </si>
+  <si>
+    <t>CN0020</t>
+  </si>
+  <si>
+    <t>CN0021</t>
+  </si>
+  <si>
+    <t>CN0022</t>
+  </si>
+  <si>
+    <t>CN0023</t>
+  </si>
+  <si>
+    <t>CN0024</t>
+  </si>
+  <si>
+    <t>CN0025</t>
+  </si>
+  <si>
+    <t>CN0026</t>
+  </si>
+  <si>
+    <t>JP0003</t>
+  </si>
+  <si>
+    <t>MY0004</t>
+  </si>
+  <si>
+    <t>MY0005</t>
+  </si>
+  <si>
+    <t>MY0006</t>
+  </si>
+  <si>
+    <t>MY0007</t>
+  </si>
+  <si>
+    <t>CN0027</t>
+  </si>
+  <si>
+    <t>CN0028</t>
+  </si>
+  <si>
+    <t>GR0001</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>DE0001</t>
+  </si>
+  <si>
+    <t>Deutschland</t>
+  </si>
+  <si>
+    <t>CN0029</t>
+  </si>
+  <si>
+    <t>CN0030</t>
+  </si>
+  <si>
+    <t>CN0031</t>
+  </si>
+  <si>
+    <t>CN0032</t>
+  </si>
+  <si>
+    <t>CN0033</t>
+  </si>
+  <si>
+    <t>CN0034</t>
+  </si>
+  <si>
+    <t>CN0035</t>
+  </si>
+  <si>
+    <t>CN0036</t>
+  </si>
+  <si>
+    <t>CN0037</t>
+  </si>
+  <si>
+    <t>CN0038</t>
+  </si>
+  <si>
+    <t>CN0039</t>
+  </si>
+  <si>
+    <t>CN0040</t>
+  </si>
+  <si>
+    <t>CN0041</t>
+  </si>
+  <si>
+    <t>CN0042</t>
+  </si>
+  <si>
+    <t>MY0008</t>
+  </si>
+  <si>
+    <t>MY0009</t>
+  </si>
+  <si>
+    <t>MY0010</t>
+  </si>
+  <si>
+    <t>MY0011</t>
+  </si>
+  <si>
+    <t>MY0012</t>
+  </si>
+  <si>
+    <t>JP0004</t>
+  </si>
+  <si>
+    <t>JP0005</t>
+  </si>
+  <si>
+    <t>JP0006</t>
+  </si>
+  <si>
+    <t>RU0002</t>
+  </si>
+  <si>
+    <t>RU0003</t>
+  </si>
+  <si>
+    <t>RU0004</t>
+  </si>
+  <si>
+    <t>RU0005</t>
+  </si>
+  <si>
+    <t>RU0006</t>
+  </si>
+  <si>
+    <t>RU0007</t>
+  </si>
+  <si>
+    <t>MY0013</t>
+  </si>
+  <si>
+    <t>MY0014</t>
+  </si>
+  <si>
+    <t>MY0015</t>
+  </si>
+  <si>
+    <t>CN0043</t>
+  </si>
+  <si>
+    <t>CN0044</t>
+  </si>
+  <si>
+    <t>CN0045</t>
+  </si>
+  <si>
+    <t>CN0046</t>
+  </si>
+  <si>
+    <t>CN0047</t>
+  </si>
+  <si>
+    <t>CN0048</t>
+  </si>
+  <si>
+    <t>CN0049</t>
+  </si>
+  <si>
+    <t>CN0050</t>
+  </si>
+  <si>
+    <t>CN0051</t>
+  </si>
+  <si>
+    <t>CN0052</t>
+  </si>
+  <si>
+    <t>CN0053</t>
+  </si>
+  <si>
+    <t>CN0054</t>
+  </si>
+  <si>
+    <t>CN0055</t>
+  </si>
+  <si>
+    <t>CN0056</t>
+  </si>
+  <si>
+    <t>CN0057</t>
+  </si>
+  <si>
+    <t>MY0016</t>
+  </si>
+  <si>
+    <t>MY0017</t>
+  </si>
+  <si>
+    <t>MY0018</t>
+  </si>
+  <si>
+    <t>MY0019</t>
+  </si>
+  <si>
+    <t>MY0020</t>
+  </si>
+  <si>
+    <t>JP0007</t>
   </si>
   <si>
     <t>US0002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RU0001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JP0001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KR0001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MY0001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tonnage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUTBOUND</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>America</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Russia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Japan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korea</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Malaysia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>US0003</t>
   </si>
 </sst>
 </file>
@@ -493,10 +745,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -512,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -521,87 +773,87 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>1516</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3">
-        <v>45388.375</v>
+        <v>45368.375</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>3489</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>45388.416666666664</v>
+        <v>45368.375</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>2352</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45368.375</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
         <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45389.385416666664</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>400</v>
+        <v>828</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>45388.416666666664</v>
+        <v>45368.541666666664</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -609,122 +861,1902 @@
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>255</v>
+        <v>1683</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>45389.625</v>
+        <v>45368.625</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3">
-        <v>45388.666666666664</v>
+        <v>45368.666666666664</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>368</v>
+        <v>3168</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3">
-        <v>45388.541666666664</v>
+        <v>45368.666666666664</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>120</v>
+        <v>1358</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3">
-        <v>45388.541666666664</v>
+        <v>45368.666666666664</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>167</v>
+        <v>2851</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3">
-        <v>45388.5</v>
+        <v>45369.375</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>288</v>
+        <v>765</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>45389.458333333336</v>
+        <v>45369.375</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1066</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
+        <v>45369.375</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2738</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
+        <v>45369.458333333336</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1587</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5">
+        <v>45369.541666666664</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2072</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5">
+        <v>45369.541666666664</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1622</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5">
+        <v>45369.541666666664</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="5">
+        <v>45369.625</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4">
+        <v>852</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="5">
+        <v>45369.625</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3448</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5">
+        <v>45370.375</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2245</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5">
+        <v>45370.416666666664</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2695</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5">
+        <v>45370.458333333336</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3256</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5">
+        <v>45370.541666666664</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1668</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5">
+        <v>45370.541666666664</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1805</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5">
+        <v>45370.666666666664</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="5">
+        <v>45370.375</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1920</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="5">
+        <v>45370.458333333336</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1900</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5">
+        <v>45371.375</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1473</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5">
+        <v>45371.375</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2143</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5">
+        <v>45371.375</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="4">
+        <v>654</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5">
+        <v>45371.416666666664</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4">
+        <v>986</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="5">
+        <v>45371.458333333336</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1356</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5">
+        <v>45371.541666666664</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="4">
+        <v>657</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5">
+        <v>45371.541666666664</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2625</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5">
+        <v>45371.541666666664</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2297</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5">
+        <v>45371.625</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1258</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5">
+        <v>45371.625</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1044</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="5">
+        <v>45371.458333333336</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1062</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="5">
+        <v>45371.541666666664</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1949</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="5">
+        <v>45371.541666666664</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="4">
+        <v>659</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="5">
+        <v>45371.375</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1132</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="5">
+        <v>45371.375</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1890</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="5">
+        <v>45372.375</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2493</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="5">
+        <v>45372.375</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="4">
+        <v>3351</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="5">
+        <v>45372.458333333336</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1406</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="5">
+        <v>45372.541666666664</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1799</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="5">
+        <v>45373.375</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="4">
+        <v>2024</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="5">
+        <v>45373.375</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2299</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="5">
+        <v>45373.375</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="4">
+        <v>900</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="5">
+        <v>45373.375</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="4">
+        <v>3159</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="5">
+        <v>45373.541666666664</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="4">
+        <v>852</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="5">
+        <v>45373.541666666664</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1638</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="5">
+        <v>45373.625</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2664</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="5">
+        <v>45374.375</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1061</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="5">
+        <v>45374.375</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="4">
+        <v>2731</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="5">
+        <v>45375.375</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1878</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="5">
+        <v>45375.375</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1202</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="5">
+        <v>45375.458333333336</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="4">
+        <v>2200</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="5">
+        <v>45375.458333333336</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1501</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="5">
+        <v>45375.458333333336</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="4">
+        <v>2442</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="5">
+        <v>45375.458333333336</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1797</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="5">
+        <v>45375.541666666664</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1432</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="5">
+        <v>45375.541666666664</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="4">
+        <v>2252</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="5">
+        <v>45375.541666666664</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="4">
+        <v>2165</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="5">
+        <v>45375.625</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1632</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="5">
+        <v>45375.666666666664</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="4">
+        <v>2287</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="5">
+        <v>45377.375</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="5">
+        <v>45377.375</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1574</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="5">
+        <v>45378.416666666664</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1987</v>
+      </c>
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="5">
+        <v>45378.458333333336</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="4">
+        <v>2310</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="5">
+        <v>45378.458333333336</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="4">
+        <v>2895</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="5">
+        <v>45378.541666666664</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="4">
+        <v>920</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="5">
+        <v>45378.541666666664</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="4">
+        <v>2207</v>
+      </c>
+      <c r="C73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="5">
+        <v>45378.541666666664</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" s="4">
+        <v>921</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="5">
+        <v>45378.583333333336</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="4">
+        <v>1522</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="5">
+        <v>45378.625</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="4">
+        <v>645</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="5">
+        <v>45378.625</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1023</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="5">
+        <v>45378.625</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1074</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="5">
+        <v>45379.375</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="4">
+        <v>2026</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="5">
+        <v>45379.375</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="4">
+        <v>3445</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="5">
+        <v>45379.458333333336</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" s="4">
+        <v>1156</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="5">
+        <v>45380.458333333336</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" s="4">
+        <v>1446</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="5">
+        <v>45380.541666666664</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" s="4">
+        <v>2775</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="5">
+        <v>45380.541666666664</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="5">
+        <v>45380.625</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="4">
+        <v>1276</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="5">
+        <v>45381.375</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="5">
+        <v>45382.375</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="4">
+        <v>2893</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="5">
+        <v>45382.458333333336</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" s="4">
+        <v>2128</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="5">
+        <v>45382.541666666664</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1562</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="5">
+        <v>45383.375</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="4">
+        <v>1016</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="5">
+        <v>45383.375</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" s="4">
+        <v>1339</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="5">
+        <v>45383.375</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="4">
+        <v>603</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="5">
+        <v>45383.416666666664</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="4">
+        <v>1778</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="5">
+        <v>45383.458333333336</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="4">
+        <v>1472</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="5">
+        <v>45383.458333333336</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" s="4">
+        <v>1583</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="5">
+        <v>45383.541666666664</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" s="4">
+        <v>3323</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="5">
+        <v>45383.541666666664</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="4">
+        <v>938</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="5">
+        <v>45383.541666666664</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="4">
+        <v>2207</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="5">
+        <v>45383.458333333336</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="4">
+        <v>909</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="5">
+        <v>45384.625</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1157</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="5">
+        <v>45385.583333333336</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/web/WBTBSsystem/test_container.xlsx
+++ b/web/WBTBSsystem/test_container.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YSY\Desktop\GRP\CW\Web-Based-Tug-Boat-Scheduling-System\web\WBTBSsystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434A96D5-F9EC-40A2-908A-843FD751A72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAA7A0E-AE55-4AAB-906E-5C716DF33FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1800" windowWidth="21600" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="1800" windowWidth="18840" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -745,10 +745,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -790,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="3">
-        <v>45368.375</v>
+        <v>45385.375</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -804,13 +804,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3489</v>
+        <v>2489</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>45368.375</v>
+        <v>45385.375</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -824,13 +824,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2352</v>
+        <v>1352</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>45368.375</v>
+        <v>45385.375</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -844,13 +844,13 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>828</v>
+        <v>1828</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>45368.541666666664</v>
+        <v>45385.375</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -870,7 +870,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>45368.625</v>
+        <v>45385.375</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -884,13 +884,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>435</v>
+        <v>2435</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3">
-        <v>45368.666666666664</v>
+        <v>45385.375</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -904,13 +904,13 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>3168</v>
+        <v>1168</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3">
-        <v>45368.666666666664</v>
+        <v>45385.416666666664</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -930,7 +930,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="3">
-        <v>45368.666666666664</v>
+        <v>45385.416666666664</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -950,13 +950,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="3">
-        <v>45369.375</v>
+        <v>45385.416666608799</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -964,22 +964,22 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>765</v>
+        <v>1765</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>45369.375</v>
+        <v>45385.416666608799</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -989,17 +989,17 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5">
-        <v>45369.375</v>
+      <c r="D12" s="3">
+        <v>45385.416666608799</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1009,17 +1009,17 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5">
-        <v>45369.458333333336</v>
+      <c r="D13" s="3">
+        <v>45385.458333333336</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1029,17 +1029,17 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="5">
-        <v>45369.541666666664</v>
+      <c r="D14" s="3">
+        <v>45385.458333333336</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1049,17 +1049,17 @@
       <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="5">
-        <v>45369.541666666664</v>
+      <c r="D15" s="3">
+        <v>45385.458333333336</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1069,37 +1069,37 @@
       <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="5">
-        <v>45369.541666666664</v>
+      <c r="D16" s="3">
+        <v>45385.458333333336</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="5">
-        <v>45369.625</v>
+      <c r="D17" s="3">
+        <v>45385.5</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1109,77 +1109,77 @@
       <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="5">
-        <v>45369.625</v>
+      <c r="D18" s="3">
+        <v>45385.5</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="4">
-        <v>3448</v>
+        <v>2448</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="5">
-        <v>45370.375</v>
+      <c r="D19" s="3">
+        <v>45385.5</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="4">
-        <v>2245</v>
+        <v>3245</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="5">
-        <v>45370.416666666664</v>
+      <c r="D20" s="3">
+        <v>45385.5</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="4">
-        <v>2695</v>
+        <v>1695</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="5">
-        <v>45370.458333333336</v>
+      <c r="D21" s="3">
+        <v>45385.5</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1189,37 +1189,37 @@
       <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="5">
-        <v>45370.541666666664</v>
+      <c r="D22" s="3">
+        <v>45385.5</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="4">
-        <v>1668</v>
+        <v>668</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="5">
-        <v>45370.541666666664</v>
+      <c r="D23" s="3">
+        <v>45385.541666666664</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1229,17 +1229,17 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="5">
-        <v>45370.666666666664</v>
+      <c r="D24" s="3">
+        <v>45385.541666666664</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1249,37 +1249,37 @@
       <c r="C25" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="5">
-        <v>45370.375</v>
+      <c r="D25" s="3">
+        <v>45385.541666608799</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="4">
-        <v>1920</v>
+        <v>2920</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="5">
-        <v>45370.458333333336</v>
+      <c r="D26" s="3">
+        <v>45385.541666608799</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1289,17 +1289,17 @@
       <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="5">
-        <v>45371.375</v>
+      <c r="D27" s="3">
+        <v>45385.541666608799</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1309,17 +1309,17 @@
       <c r="C28" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="5">
-        <v>45371.375</v>
+      <c r="D28" s="3">
+        <v>45385.541666608799</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1329,17 +1329,17 @@
       <c r="C29" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="5">
-        <v>45371.375</v>
+      <c r="D29" s="3">
+        <v>45385.583333333336</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1349,17 +1349,17 @@
       <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="5">
-        <v>45371.416666666664</v>
+      <c r="D30" s="3">
+        <v>45385.583333333336</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1369,17 +1369,17 @@
       <c r="C31" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="5">
-        <v>45371.458333333336</v>
+      <c r="D31" s="3">
+        <v>45385.583333333336</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1389,77 +1389,77 @@
       <c r="C32" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="5">
-        <v>45371.541666666664</v>
+      <c r="D32" s="3">
+        <v>45385.583333333336</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="4">
-        <v>657</v>
+        <v>2657</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="5">
-        <v>45371.541666666664</v>
+      <c r="D33" s="3">
+        <v>45385.583333333336</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="4">
-        <v>2625</v>
+        <v>1625</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="5">
-        <v>45371.541666666664</v>
+      <c r="D34" s="3">
+        <v>45385.583333333336</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="4">
-        <v>2297</v>
+        <v>2997</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="5">
-        <v>45371.625</v>
+      <c r="D35" s="3">
+        <v>45385.625</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1469,17 +1469,17 @@
       <c r="C36" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="5">
-        <v>45371.625</v>
+      <c r="D36" s="3">
+        <v>45385.625</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1489,17 +1489,17 @@
       <c r="C37" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="5">
-        <v>45371.458333333336</v>
+      <c r="D37" s="3">
+        <v>45385.625</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1509,77 +1509,77 @@
       <c r="C38" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="5">
-        <v>45371.541666666664</v>
+      <c r="D38" s="3">
+        <v>45385.625</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
       <c r="B39" s="4">
-        <v>1949</v>
+        <v>1111</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="5">
-        <v>45371.541666666664</v>
+      <c r="D39" s="3">
+        <v>45385.625</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="4">
-        <v>659</v>
+        <v>1659</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="5">
-        <v>45371.375</v>
+      <c r="D40" s="3">
+        <v>45385.625</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="4">
-        <v>1132</v>
+        <v>1532</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="5">
-        <v>45371.375</v>
+      <c r="D41" s="3">
+        <v>45385.625</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -1589,8 +1589,8 @@
       <c r="C42" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="5">
-        <v>45372.375</v>
+      <c r="D42" s="3">
+        <v>45385.666666666664</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>11</v>
@@ -1599,18 +1599,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="4">
-        <v>2493</v>
+        <v>2793</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="5">
-        <v>45372.375</v>
+      <c r="D43" s="3">
+        <v>45385.666666666664</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -1619,18 +1619,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="4">
-        <v>3351</v>
+        <v>1951</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="5">
-        <v>45372.458333333336</v>
+      <c r="D44" s="3">
+        <v>45385.666666608799</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>11</v>
@@ -1639,18 +1639,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
       <c r="B45" s="4">
-        <v>1406</v>
+        <v>3406</v>
       </c>
       <c r="C45" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="5">
-        <v>45372.541666666664</v>
+      <c r="D45" s="3">
+        <v>45385.666666608799</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>11</v>
@@ -1659,7 +1659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -1669,117 +1669,117 @@
       <c r="C46" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="5">
-        <v>45373.375</v>
+      <c r="D46" s="3">
+        <v>45385.666666608799</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
       <c r="B47" s="4">
-        <v>2024</v>
+        <v>1024</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="5">
-        <v>45373.375</v>
+      <c r="D47" s="3">
+        <v>45385.666666608799</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
       <c r="B48" s="4">
-        <v>2299</v>
+        <v>1299</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="5">
-        <v>45373.375</v>
+      <c r="D48" s="3">
+        <v>45385.708333333336</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
       <c r="B49" s="4">
-        <v>900</v>
+        <v>2892</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="5">
-        <v>45373.375</v>
+      <c r="D49" s="3">
+        <v>45385.708333333336</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
       <c r="B50" s="4">
-        <v>3159</v>
+        <v>1159</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="5">
-        <v>45373.541666666664</v>
+      <c r="D50" s="3">
+        <v>45385.708333333336</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
       <c r="B51" s="4">
-        <v>852</v>
+        <v>1852</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="5">
-        <v>45373.541666666664</v>
+      <c r="D51" s="3">
+        <v>45385.708333333336</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -1789,37 +1789,37 @@
       <c r="C52" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="5">
-        <v>45373.625</v>
+      <c r="D52" s="3">
+        <v>45386.375</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>67</v>
       </c>
       <c r="B53" s="4">
-        <v>2664</v>
+        <v>1664</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="5">
-        <v>45374.375</v>
+      <c r="D53" s="3">
+        <v>45386.375</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -1829,37 +1829,37 @@
       <c r="C54" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="5">
-        <v>45374.375</v>
+      <c r="D54" s="3">
+        <v>45386.375</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="4">
-        <v>2731</v>
+        <v>2232</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="5">
-        <v>45375.375</v>
+      <c r="D55" s="3">
+        <v>45386.375</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -1869,57 +1869,57 @@
       <c r="C56" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="5">
-        <v>45375.375</v>
+      <c r="D56" s="3">
+        <v>45386.375</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
       <c r="B57" s="4">
-        <v>1202</v>
+        <v>2202</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="5">
-        <v>45375.458333333336</v>
+      <c r="D57" s="3">
+        <v>45386.375</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>71</v>
       </c>
       <c r="B58" s="4">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="5">
-        <v>45375.458333333336</v>
+      <c r="D58" s="3">
+        <v>45386.416666666664</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -1929,37 +1929,37 @@
       <c r="C59" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="5">
-        <v>45375.458333333336</v>
+      <c r="D59" s="3">
+        <v>45386.416666666664</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F59">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
       <c r="B60" s="4">
-        <v>2442</v>
+        <v>1442</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="5">
-        <v>45375.458333333336</v>
+      <c r="D60" s="3">
+        <v>45386.416666608799</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -1969,17 +1969,17 @@
       <c r="C61" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="5">
-        <v>45375.541666666664</v>
+      <c r="D61" s="3">
+        <v>45386.416666608799</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F61">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -1989,17 +1989,17 @@
       <c r="C62" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="5">
-        <v>45375.541666666664</v>
+      <c r="D62" s="3">
+        <v>45386.416666666664</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -2009,17 +2009,17 @@
       <c r="C63" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="5">
-        <v>45375.541666666664</v>
+      <c r="D63" s="3">
+        <v>45386.458333333336</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -2029,17 +2029,17 @@
       <c r="C64" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="5">
-        <v>45375.625</v>
+      <c r="D64" s="3">
+        <v>45386.458333333336</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -2049,57 +2049,57 @@
       <c r="C65" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="5">
-        <v>45375.666666666664</v>
+      <c r="D65" s="3">
+        <v>45386.458333333336</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>79</v>
       </c>
       <c r="B66" s="4">
-        <v>2287</v>
+        <v>1287</v>
       </c>
       <c r="C66" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="5">
-        <v>45377.375</v>
+      <c r="D66" s="3">
+        <v>45386.458333333336</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>80</v>
       </c>
       <c r="B67" s="4">
-        <v>2020</v>
+        <v>1020</v>
       </c>
       <c r="C67" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="5">
-        <v>45377.375</v>
+      <c r="D67" s="3">
+        <v>45386.5</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -2109,17 +2109,17 @@
       <c r="C68" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="5">
-        <v>45378.416666666664</v>
+      <c r="D68" s="3">
+        <v>45386.5</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -2129,117 +2129,117 @@
       <c r="C69" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="5">
-        <v>45378.458333333336</v>
+      <c r="D69" s="3">
+        <v>45386.5</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
       <c r="B70" s="4">
-        <v>2310</v>
+        <v>1342</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="5">
-        <v>45378.458333333336</v>
+      <c r="D70" s="3">
+        <v>45386.5</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
       <c r="B71" s="4">
-        <v>2895</v>
+        <v>1895</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="5">
-        <v>45378.541666666664</v>
+      <c r="D71" s="3">
+        <v>45386.5</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
       <c r="B72" s="4">
-        <v>920</v>
+        <v>1920</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="5">
-        <v>45378.541666666664</v>
+      <c r="D72" s="3">
+        <v>45386.5</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F72">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>86</v>
       </c>
       <c r="B73" s="4">
-        <v>2207</v>
+        <v>1207</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
       </c>
-      <c r="D73" s="5">
-        <v>45378.541666666664</v>
+      <c r="D73" s="3">
+        <v>45386.541666666664</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F73">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
       <c r="B74" s="4">
-        <v>921</v>
+        <v>1921</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
       </c>
-      <c r="D74" s="5">
-        <v>45378.583333333336</v>
+      <c r="D74" s="3">
+        <v>45386.541666666664</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F74">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -2249,37 +2249,37 @@
       <c r="C75" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="5">
-        <v>45378.625</v>
+      <c r="D75" s="3">
+        <v>45386.541666608799</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F75">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
       <c r="B76" s="4">
-        <v>645</v>
+        <v>1645</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="5">
-        <v>45378.625</v>
+      <c r="D76" s="3">
+        <v>45386.541666608799</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -2289,17 +2289,17 @@
       <c r="C77" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="5">
-        <v>45378.625</v>
+      <c r="D77" s="3">
+        <v>45386.541666608799</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -2309,57 +2309,57 @@
       <c r="C78" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="5">
-        <v>45379.375</v>
+      <c r="D78" s="3">
+        <v>45386.541666608799</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>92</v>
       </c>
       <c r="B79" s="4">
-        <v>2026</v>
+        <v>1026</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="5">
-        <v>45379.375</v>
+      <c r="D79" s="3">
+        <v>45386.583333333336</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>93</v>
       </c>
       <c r="B80" s="4">
-        <v>3445</v>
+        <v>1445</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="5">
-        <v>45379.458333333336</v>
+      <c r="D80" s="3">
+        <v>45386.583333333336</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -2369,17 +2369,17 @@
       <c r="C81" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="5">
-        <v>45380.458333333336</v>
+      <c r="D81" s="3">
+        <v>45386.583333333336</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -2389,157 +2389,157 @@
       <c r="C82" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="5">
-        <v>45380.541666666664</v>
+      <c r="D82" s="3">
+        <v>45386.583333333336</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>96</v>
       </c>
       <c r="B83" s="4">
-        <v>2775</v>
+        <v>1775</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="5">
-        <v>45380.541666666664</v>
+      <c r="D83" s="3">
+        <v>45386.583333333336</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F83">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>97</v>
       </c>
       <c r="B84" s="4">
-        <v>1000</v>
+        <v>2870</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="5">
-        <v>45380.625</v>
+      <c r="D84" s="3">
+        <v>45386.583333333336</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F84">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>98</v>
       </c>
       <c r="B85" s="4">
-        <v>1276</v>
+        <v>1567</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="5">
-        <v>45381.375</v>
+      <c r="D85" s="3">
+        <v>45386.625</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>99</v>
       </c>
       <c r="B86" s="4">
-        <v>3000</v>
+        <v>986</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="5">
-        <v>45382.375</v>
+      <c r="D86" s="3">
+        <v>45386.625</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F86">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>100</v>
       </c>
       <c r="B87" s="4">
-        <v>2893</v>
+        <v>1893</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="5">
-        <v>45382.458333333336</v>
+      <c r="D87" s="3">
+        <v>45386.625</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>101</v>
       </c>
       <c r="B88" s="4">
-        <v>2128</v>
+        <v>1128</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="5">
-        <v>45382.541666666664</v>
+      <c r="D88" s="3">
+        <v>45386.625</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>102</v>
       </c>
       <c r="B89" s="4">
-        <v>1562</v>
+        <v>1762</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="5">
-        <v>45383.375</v>
+      <c r="D89" s="3">
+        <v>45386.625</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -2549,37 +2549,37 @@
       <c r="C90" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="5">
-        <v>45383.375</v>
+      <c r="D90" s="3">
+        <v>45386.625</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>104</v>
       </c>
       <c r="B91" s="4">
-        <v>1339</v>
+        <v>872</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="5">
-        <v>45383.375</v>
+      <c r="D91" s="3">
+        <v>45386.625</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -2589,17 +2589,17 @@
       <c r="C92" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="5">
-        <v>45383.416666666664</v>
+      <c r="D92" s="3">
+        <v>45386.666666666664</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -2609,17 +2609,17 @@
       <c r="C93" t="s">
         <v>16</v>
       </c>
-      <c r="D93" s="5">
-        <v>45383.458333333336</v>
+      <c r="D93" s="3">
+        <v>45386.666666666664</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F93">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -2629,17 +2629,17 @@
       <c r="C94" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="5">
-        <v>45383.458333333336</v>
+      <c r="D94" s="3">
+        <v>45386.666666608799</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F94">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -2649,37 +2649,37 @@
       <c r="C95" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="5">
-        <v>45383.541666666664</v>
+      <c r="D95" s="3">
+        <v>45386.666666608799</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F95">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>109</v>
       </c>
       <c r="B96" s="4">
-        <v>3323</v>
+        <v>1323</v>
       </c>
       <c r="C96" t="s">
         <v>16</v>
       </c>
-      <c r="D96" s="5">
-        <v>45383.541666666664</v>
+      <c r="D96" s="3">
+        <v>45386.666666608799</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F96">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -2689,17 +2689,17 @@
       <c r="C97" t="s">
         <v>16</v>
       </c>
-      <c r="D97" s="5">
-        <v>45383.541666666664</v>
+      <c r="D97" s="3">
+        <v>45386.666666608799</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F97">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -2709,8 +2709,8 @@
       <c r="C98" t="s">
         <v>24</v>
       </c>
-      <c r="D98" s="5">
-        <v>45383.458333333336</v>
+      <c r="D98" s="3">
+        <v>45386.708333333336</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>11</v>
@@ -2719,27 +2719,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>112</v>
       </c>
       <c r="B99" s="4">
-        <v>909</v>
+        <v>2909</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
       </c>
-      <c r="D99" s="5">
-        <v>45384.625</v>
+      <c r="D99" s="3">
+        <v>45386.708333333336</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -2749,15 +2749,18 @@
       <c r="C100" t="s">
         <v>18</v>
       </c>
-      <c r="D100" s="5">
-        <v>45385.583333333336</v>
+      <c r="D100" s="3">
+        <v>45386.708333333336</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F100">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D101" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/web/WBTBSsystem/test_container.xlsx
+++ b/web/WBTBSsystem/test_container.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YSY\Desktop\GRP\CW\Web-Based-Tug-Boat-Scheduling-System\web\WBTBSsystem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAA7A0E-AE55-4AAB-906E-5C716DF33FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="1800" windowWidth="18840" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="11520" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -25,12 +19,30 @@
     <t>ContainerBoatID</t>
   </si>
   <si>
+    <t>Tonnage</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
     <t>ArrivalTime</t>
   </si>
   <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>BerthID</t>
+  </si>
+  <si>
+    <t>CN0001</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>INBOUND</t>
+  </si>
+  <si>
     <t>CN0002</t>
   </si>
   <si>
@@ -38,24 +50,6 @@
   </si>
   <si>
     <t>CN0004</t>
-  </si>
-  <si>
-    <t>Tonnage</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>BerthID</t>
-  </si>
-  <si>
-    <t>CN0001</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>INBOUND</t>
   </si>
   <si>
     <t>CN0005</t>
@@ -367,44 +361,380 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -413,45 +743,324 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -736,130 +1345,129 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="5" width="16.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
       </c>
       <c r="B2">
         <v>1516</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
         <v>45385.375</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="19.5" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2489</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5">
         <v>45385.375</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1352</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5">
         <v>45385.375</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1828</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5">
         <v>45385.375</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -867,19 +1475,19 @@
         <v>1683</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5">
         <v>45385.375</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -887,9 +1495,9 @@
         <v>2435</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
         <v>45385.375</v>
       </c>
       <c r="E7" t="s">
@@ -899,7 +1507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -909,17 +1517,17 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3">
-        <v>45385.416666666664</v>
+      <c r="D8" s="5">
+        <v>45385.4166666667</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -929,17 +1537,17 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3">
-        <v>45385.416666666664</v>
+      <c r="D9" s="5">
+        <v>45385.4166666667</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -947,19 +1555,19 @@
         <v>2851</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45385.416666608799</v>
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45385.4166666088</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -967,1803 +1575,1803 @@
         <v>1765</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>45385.416666608799</v>
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
+        <v>45385.4166666088</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>1066</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3">
-        <v>45385.416666608799</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>45385.4166666088</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>2738</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>45385.458333333336</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D13" s="5">
+        <v>45385.4583333333</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>1587</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3">
-        <v>45385.458333333336</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>11</v>
+      <c r="D14" s="5">
+        <v>45385.4583333333</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <v>2072</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3">
-        <v>45385.458333333336</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>11</v>
+      <c r="D15" s="5">
+        <v>45385.4583333333</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>1622</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="3">
-        <v>45385.458333333336</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="5">
+        <v>45385.4583333333</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <v>2000</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>45385.5</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>11</v>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="1">
         <v>852</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>45385.5</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <v>2448</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5">
         <v>45385.5</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>11</v>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F19">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="1">
         <v>3245</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5">
         <v>45385.5</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>11</v>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F20">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="1">
         <v>1695</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5">
         <v>45385.5</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>11</v>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="1">
         <v>3256</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="3">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5">
         <v>45385.5</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>11</v>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="1">
         <v>668</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="3">
-        <v>45385.541666666664</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D23" s="5">
+        <v>45385.5416666667</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="1">
         <v>1805</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="3">
-        <v>45385.541666666664</v>
-      </c>
-      <c r="E24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5">
+        <v>45385.5416666667</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="1">
         <v>1150</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="3">
-        <v>45385.541666608799</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>11</v>
+      <c r="D25" s="5">
+        <v>45385.5416666088</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="1">
         <v>2920</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="3">
-        <v>45385.541666608799</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>11</v>
+      <c r="D26" s="5">
+        <v>45385.5416666088</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="1">
         <v>1900</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3">
-        <v>45385.541666608799</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D27" s="5">
+        <v>45385.5416666088</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="1">
         <v>1473</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="3">
-        <v>45385.541666608799</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D28" s="5">
+        <v>45385.5416666088</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F28">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="1">
         <v>2143</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3">
-        <v>45385.583333333336</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D29" s="5">
+        <v>45385.5833333333</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F29">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="1">
         <v>654</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="3">
-        <v>45385.583333333336</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D30" s="5">
+        <v>45385.5833333333</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F30">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="1">
         <v>986</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="3">
-        <v>45385.583333333336</v>
-      </c>
-      <c r="E31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5">
+        <v>45385.5833333333</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="1">
         <v>1356</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3">
-        <v>45385.583333333336</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D32" s="5">
+        <v>45385.5833333333</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="1">
         <v>2657</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="3">
-        <v>45385.583333333336</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D33" s="5">
+        <v>45385.5833333333</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="1">
         <v>1625</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="3">
-        <v>45385.583333333336</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D34" s="5">
+        <v>45385.5833333333</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="1">
         <v>2997</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="3">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5">
         <v>45385.625</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>11</v>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="1">
         <v>1258</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="3">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5">
         <v>45385.625</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>11</v>
+      <c r="E36" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="1">
         <v>1044</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="5">
         <v>45385.625</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F37">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="1">
         <v>1062</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="5">
         <v>45385.625</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>11</v>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F38">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="1">
         <v>1111</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="5">
         <v>45385.625</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>11</v>
+      <c r="E39" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F39">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="1">
         <v>1659</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="5">
         <v>45385.625</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>11</v>
+      <c r="E40" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F40">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="1">
         <v>1532</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="5">
         <v>45385.625</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>11</v>
+      <c r="E41" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F41">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="1">
         <v>1890</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="3">
-        <v>45385.666666666664</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D42" s="5">
+        <v>45385.6666666667</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="1">
         <v>2793</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="3">
-        <v>45385.666666666664</v>
-      </c>
-      <c r="E43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5">
+        <v>45385.6666666667</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="1">
         <v>1951</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="3">
-        <v>45385.666666608799</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>11</v>
+      <c r="D44" s="5">
+        <v>45385.6666666088</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="1">
         <v>3406</v>
       </c>
       <c r="C45" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="3">
-        <v>45385.666666608799</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>11</v>
+      <c r="D45" s="5">
+        <v>45385.6666666088</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F45">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="1">
         <v>1799</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="3">
-        <v>45385.666666608799</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D46" s="5">
+        <v>45385.6666666088</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="1">
         <v>1024</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="3">
-        <v>45385.666666608799</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D47" s="5">
+        <v>45385.6666666088</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F47">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="1">
         <v>1299</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="3">
-        <v>45385.708333333336</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D48" s="5">
+        <v>45385.7083333333</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F48">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="1">
         <v>2892</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="3">
-        <v>45385.708333333336</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D49" s="5">
+        <v>45385.7083333333</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F49">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="1">
         <v>1159</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="3">
-        <v>45385.708333333336</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D50" s="5">
+        <v>45385.7083333333</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F50">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="1">
         <v>1852</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="3">
-        <v>45385.708333333336</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D51" s="5">
+        <v>45385.7083333333</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F51">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="1">
         <v>1638</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="3">
+        <v>7</v>
+      </c>
+      <c r="D52" s="5">
         <v>45386.375</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>11</v>
+      <c r="E52" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="1">
         <v>1664</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="3">
+        <v>7</v>
+      </c>
+      <c r="D53" s="5">
         <v>45386.375</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>11</v>
+      <c r="E53" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="1">
         <v>1061</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="3">
+        <v>7</v>
+      </c>
+      <c r="D54" s="5">
         <v>45386.375</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>11</v>
+      <c r="E54" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="4">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
         <v>2232</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="3">
+        <v>7</v>
+      </c>
+      <c r="D55" s="5">
         <v>45386.375</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="1">
         <v>1878</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="3">
+        <v>7</v>
+      </c>
+      <c r="D56" s="5">
         <v>45386.375</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>11</v>
+      <c r="E56" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="1">
         <v>2202</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="3">
+        <v>7</v>
+      </c>
+      <c r="D57" s="5">
         <v>45386.375</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>11</v>
+      <c r="E57" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F57">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="1">
         <v>1200</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="3">
-        <v>45386.416666666664</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D58" s="5">
+        <v>45386.4166666667</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F58">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="1">
         <v>1501</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="3">
-        <v>45386.416666666664</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D59" s="5">
+        <v>45386.4166666667</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F59">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="1">
         <v>1442</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="3">
-        <v>45386.416666608799</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D60" s="5">
+        <v>45386.4166666088</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F60">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="1">
         <v>1797</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="3">
-        <v>45386.416666608799</v>
-      </c>
-      <c r="E61" s="5" t="s">
+      <c r="D61" s="5">
+        <v>45386.4166666088</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F61">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="1">
         <v>1432</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="3">
-        <v>45386.416666666664</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>11</v>
+      <c r="D62" s="5">
+        <v>45386.4166666667</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="1">
         <v>2252</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="3">
-        <v>45386.458333333336</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>11</v>
+      <c r="D63" s="5">
+        <v>45386.4583333333</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="1">
         <v>2165</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="3">
-        <v>45386.458333333336</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>11</v>
+      <c r="D64" s="5">
+        <v>45386.4583333333</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="1">
         <v>1632</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="3">
-        <v>45386.458333333336</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>11</v>
+      <c r="D65" s="5">
+        <v>45386.4583333333</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F65">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="1">
         <v>1287</v>
       </c>
       <c r="C66" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="3">
-        <v>45386.458333333336</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>11</v>
+      <c r="D66" s="5">
+        <v>45386.4583333333</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F66">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="1">
         <v>1020</v>
       </c>
       <c r="C67" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="5">
         <v>45386.5</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F67">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="1">
         <v>1574</v>
       </c>
       <c r="C68" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="5">
         <v>45386.5</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>11</v>
+      <c r="E68" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F68">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="1">
         <v>1987</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="5">
         <v>45386.5</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>11</v>
+      <c r="E69" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F69">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="1">
         <v>1342</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="5">
         <v>45386.5</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>11</v>
+      <c r="E70" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F70">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="1">
         <v>1895</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="5">
         <v>45386.5</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>11</v>
+      <c r="E71" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F71">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="1">
         <v>1920</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="5">
         <v>45386.5</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>11</v>
+      <c r="E72" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="1">
         <v>1207</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
       </c>
-      <c r="D73" s="3">
-        <v>45386.541666666664</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>11</v>
+      <c r="D73" s="5">
+        <v>45386.5416666667</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>87</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="1">
         <v>1921</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
       </c>
-      <c r="D74" s="3">
-        <v>45386.541666666664</v>
-      </c>
-      <c r="E74" s="5" t="s">
+      <c r="D74" s="5">
+        <v>45386.5416666667</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F74">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="1">
         <v>1522</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="3">
-        <v>45386.541666608799</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>11</v>
+      <c r="D75" s="5">
+        <v>45386.5416666088</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F75">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>89</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="1">
         <v>1645</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="3">
-        <v>45386.541666608799</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>11</v>
+      <c r="D76" s="5">
+        <v>45386.5416666088</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F76">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>90</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="1">
         <v>1023</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="3">
-        <v>45386.541666608799</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>11</v>
+      <c r="D77" s="5">
+        <v>45386.5416666088</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F77">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="1">
         <v>1074</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="3">
-        <v>45386.541666608799</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D78" s="5">
+        <v>45386.5416666088</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F78">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="1">
         <v>1026</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="3">
-        <v>45386.583333333336</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D79" s="5">
+        <v>45386.5833333333</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F79">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="1">
         <v>1445</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="3">
-        <v>45386.583333333336</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D80" s="5">
+        <v>45386.5833333333</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F80">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>94</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="1">
         <v>1156</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="3">
-        <v>45386.583333333336</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D81" s="5">
+        <v>45386.5833333333</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F81">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="1">
         <v>1446</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="3">
-        <v>45386.583333333336</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D82" s="5">
+        <v>45386.5833333333</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>96</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="1">
         <v>1775</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="3">
-        <v>45386.583333333336</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D83" s="5">
+        <v>45386.5833333333</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>97</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="1">
         <v>2870</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="3">
-        <v>45386.583333333336</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D84" s="5">
+        <v>45386.5833333333</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F84">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="1">
         <v>1567</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="3">
+        <v>7</v>
+      </c>
+      <c r="D85" s="5">
         <v>45386.625</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F85">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="1">
         <v>986</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="3">
+        <v>7</v>
+      </c>
+      <c r="D86" s="5">
         <v>45386.625</v>
       </c>
-      <c r="E86" s="5" t="s">
-        <v>11</v>
+      <c r="E86" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F86">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>100</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="1">
         <v>1893</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="3">
+        <v>7</v>
+      </c>
+      <c r="D87" s="5">
         <v>45386.625</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>11</v>
+      <c r="E87" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F87">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>101</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="1">
         <v>1128</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="3">
+        <v>7</v>
+      </c>
+      <c r="D88" s="5">
         <v>45386.625</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>11</v>
+      <c r="E88" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F88">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>102</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="1">
         <v>1762</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="3">
+        <v>7</v>
+      </c>
+      <c r="D89" s="5">
         <v>45386.625</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>11</v>
+      <c r="E89" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F89">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="1">
         <v>1016</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="3">
+        <v>7</v>
+      </c>
+      <c r="D90" s="5">
         <v>45386.625</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>11</v>
+      <c r="E90" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F90">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>104</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="1">
         <v>872</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="3">
+        <v>7</v>
+      </c>
+      <c r="D91" s="5">
         <v>45386.625</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>11</v>
+      <c r="E91" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F91">
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>105</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="1">
         <v>603</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="3">
-        <v>45386.666666666664</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D92" s="5">
+        <v>45386.6666666667</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>106</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="1">
         <v>1778</v>
       </c>
       <c r="C93" t="s">
         <v>16</v>
       </c>
-      <c r="D93" s="3">
-        <v>45386.666666666664</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>11</v>
+      <c r="D93" s="5">
+        <v>45386.6666666667</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="1">
         <v>1472</v>
       </c>
       <c r="C94" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="3">
-        <v>45386.666666608799</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>11</v>
+      <c r="D94" s="5">
+        <v>45386.6666666088</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F94">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>108</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="1">
         <v>1583</v>
       </c>
       <c r="C95" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="3">
-        <v>45386.666666608799</v>
-      </c>
-      <c r="E95" s="5" t="s">
+      <c r="D95" s="5">
+        <v>45386.6666666088</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F95">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>109</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="1">
         <v>1323</v>
       </c>
       <c r="C96" t="s">
         <v>16</v>
       </c>
-      <c r="D96" s="3">
-        <v>45386.666666608799</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>11</v>
+      <c r="D96" s="5">
+        <v>45386.6666666088</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F96">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>110</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="1">
         <v>938</v>
       </c>
       <c r="C97" t="s">
         <v>16</v>
       </c>
-      <c r="D97" s="3">
-        <v>45386.666666608799</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>11</v>
+      <c r="D97" s="5">
+        <v>45386.6666666088</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F97">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>111</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="1">
         <v>2207</v>
       </c>
       <c r="C98" t="s">
         <v>24</v>
       </c>
-      <c r="D98" s="3">
-        <v>45386.708333333336</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>11</v>
+      <c r="D98" s="5">
+        <v>45386.7083333333</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F98">
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>112</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="1">
         <v>2909</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
       </c>
-      <c r="D99" s="3">
-        <v>45386.708333333336</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>11</v>
+      <c r="D99" s="5">
+        <v>45386.7083333333</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F99">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>113</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="1">
         <v>1157</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
       </c>
-      <c r="D100" s="3">
-        <v>45386.708333333336</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>11</v>
+      <c r="D100" s="5">
+        <v>45386.7083333333</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F100">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="D101" s="3"/>
+    <row r="101" spans="4:4">
+      <c r="D101" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/web/WBTBSsystem/test_container.xlsx
+++ b/web/WBTBSsystem/test_container.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shitingyao/Desktop/史呆芬/year_3/S1/GRP/Web-Based-Tug-Boat-Scheduling-System-main/web/WBTBSsystem/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773BF0E5-DB18-954F-84ED-5236D1123E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21700" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,14 +367,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,353 +388,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -742,251 +405,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -996,71 +417,27 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1345,21 +722,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
@@ -1367,7 +745,7 @@
     <col min="4" max="5" width="16.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1387,238 +765,238 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>1168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45399.416666666664</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>1516</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5">
-        <v>45385.375</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45399.375</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>2489</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5">
-        <v>45385.375</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>1352</v>
+        <v>36</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1805</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="5">
-        <v>45385.375</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+        <v>45399.541666666664</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2448</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45399.5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2489</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45399.375</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1">
+        <v>986</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45399.583333333336</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2738</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45399.458333333336</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1352</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>45399.375</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B10">
         <v>1828</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5">
-        <v>45385.375</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45399.375</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1">
+        <v>852</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5">
+        <v>45399.5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B12">
         <v>1683</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5">
-        <v>45385.375</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>45399.375</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>2435</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5">
-        <v>45385.375</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>1168</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5">
-        <v>45385.4166666667</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>1358</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5">
-        <v>45385.4166666667</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>2851</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5">
-        <v>45385.4166666088</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>1765</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5">
-        <v>45385.4166666088</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1066</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>45385.4166666088</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
-        <v>2738</v>
+        <v>668</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="5">
-        <v>45385.4583333333</v>
+        <v>45399.541666666664</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
@@ -1627,47 +1005,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1358</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5">
+        <v>45399.416666666664</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>1587</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5">
-        <v>45385.4583333333</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2072</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="5">
-        <v>45385.4583333333</v>
+        <v>45399.458333333336</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1678,7 +1056,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="5">
-        <v>45385.4583333333</v>
+        <v>45399.458333333336</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -1687,7 +1065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1698,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="5">
-        <v>45385.5</v>
+        <v>45399.5</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>8</v>
@@ -1707,47 +1085,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1">
-        <v>852</v>
+        <v>1532</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D18" s="5">
-        <v>45385.5</v>
+        <v>45399.625</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1">
-        <v>2448</v>
+        <v>2657</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="5">
-        <v>45385.5</v>
+        <v>45399.583333333336</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1758,7 +1136,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="5">
-        <v>45385.5</v>
+        <v>45399.5</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>8</v>
@@ -1767,98 +1145,98 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1">
-        <v>1695</v>
+        <v>3256</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="5">
-        <v>45385.5</v>
+        <v>45399.5</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>3256</v>
+        <v>1150</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D22" s="5">
-        <v>45385.5</v>
+        <v>45399.541666666664</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1">
-        <v>668</v>
+        <v>1159</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="5">
-        <v>45385.5416666667</v>
+        <v>45399.708333333336</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1">
-        <v>1805</v>
+        <v>2920</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D24" s="5">
-        <v>45385.5416666667</v>
+        <v>45399.541666666664</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1">
-        <v>1150</v>
+        <v>2997</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D25" s="5">
-        <v>45385.5416666088</v>
+        <v>45399.625</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>8</v>
@@ -1867,27 +1245,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1">
-        <v>2920</v>
+        <v>1024</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D26" s="5">
-        <v>45385.5416666088</v>
+        <v>45399.666666666664</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1898,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="5">
-        <v>45385.5416666088</v>
+        <v>45399.541666666664</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>8</v>
@@ -1907,467 +1285,467 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2143</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5">
+        <v>45399.583333333336</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>1765</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5">
+        <v>45399.416666666664</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1890</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5">
+        <v>45399.666666666664</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2072</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="5">
+        <v>45399.458333333336</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="1">
+        <v>654</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5">
+        <v>45399.583333333336</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1356</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="5">
+        <v>45399.583333333336</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3406</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="5">
+        <v>45399.666666666664</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1066</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5">
+        <v>45399.416666666664</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1625</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5">
+        <v>45399.583333333336</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B37" s="1">
         <v>1473</v>
       </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="5">
-        <v>45385.5416666088</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2143</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="5">
-        <v>45385.5833333333</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="1">
-        <v>654</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="5">
-        <v>45385.5833333333</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30">
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5">
+        <v>45399.541666666664</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>2851</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="5">
+        <v>45399.416666666664</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="1">
-        <v>986</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="5">
-        <v>45385.5833333333</v>
-      </c>
-      <c r="E31" s="2" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1258</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="5">
+        <v>45399.625</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2892</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="5">
+        <v>45399.708333333336</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1044</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="5">
+        <v>45399.625</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F31">
+      <c r="F41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1062</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="5">
+        <v>45399.625</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>2435</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5">
+        <v>45399.375</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="5">
+        <v>45399.625</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="5">
+        <v>45399.5</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1356</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="5">
-        <v>45385.5833333333</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2657</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="5">
-        <v>45385.5833333333</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1659</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="5">
+        <v>45399.625</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2793</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="5">
+        <v>45399.666666666664</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1625</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="5">
-        <v>45385.5833333333</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1951</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="5">
+        <v>45399.666666666664</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2997</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="5">
-        <v>45385.625</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1258</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="5">
-        <v>45385.625</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1299</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="5">
+        <v>45399.708333333336</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1799</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="5">
+        <v>45399.666666666664</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1044</v>
-      </c>
-      <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="5">
-        <v>45385.625</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1062</v>
-      </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="5">
-        <v>45385.625</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1111</v>
-      </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="5">
-        <v>45385.625</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1659</v>
-      </c>
-      <c r="C40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="5">
-        <v>45385.625</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1532</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="5">
-        <v>45385.625</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1890</v>
-      </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="5">
-        <v>45385.6666666667</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2793</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="5">
-        <v>45385.6666666667</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="1">
-        <v>1951</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="5">
-        <v>45385.6666666088</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="1">
-        <v>3406</v>
-      </c>
-      <c r="C45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="5">
-        <v>45385.6666666088</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1799</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="5">
-        <v>45385.6666666088</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1024</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="5">
-        <v>45385.6666666088</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="1">
-        <v>1299</v>
-      </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="5">
-        <v>45385.7083333333</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2892</v>
-      </c>
-      <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="5">
-        <v>45385.7083333333</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="1">
-        <v>1159</v>
-      </c>
-      <c r="C50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="5">
-        <v>45385.7083333333</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -2378,7 +1756,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="5">
-        <v>45385.7083333333</v>
+        <v>45399.708333333336</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>8</v>
@@ -2387,7 +1765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -2398,7 +1776,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="5">
-        <v>45386.375</v>
+        <v>45388.375</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>8</v>
@@ -2407,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -2418,7 +1796,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="5">
-        <v>45386.375</v>
+        <v>45388.375</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>8</v>
@@ -2427,7 +1805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -2438,7 +1816,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="5">
-        <v>45386.375</v>
+        <v>45388.375</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>8</v>
@@ -2447,7 +1825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -2458,7 +1836,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="5">
-        <v>45386.375</v>
+        <v>45388.375</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>14</v>
@@ -2467,7 +1845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -2478,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="5">
-        <v>45386.375</v>
+        <v>45388.375</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>8</v>
@@ -2487,7 +1865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -2498,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="5">
-        <v>45386.375</v>
+        <v>45388.375</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>8</v>
@@ -2507,7 +1885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -2518,7 +1896,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="5">
-        <v>45386.4166666667</v>
+        <v>45386.416666666701</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>8</v>
@@ -2527,7 +1905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -2538,7 +1916,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="5">
-        <v>45386.4166666667</v>
+        <v>45386.416666666701</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>8</v>
@@ -2547,7 +1925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +1936,7 @@
         <v>7</v>
       </c>
       <c r="D60" s="5">
-        <v>45386.4166666088</v>
+        <v>45386.416666608799</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>8</v>
@@ -2567,7 +1945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -2578,7 +1956,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="5">
-        <v>45386.4166666088</v>
+        <v>45386.416666608799</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>14</v>
@@ -2587,7 +1965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -2598,7 +1976,7 @@
         <v>16</v>
       </c>
       <c r="D62" s="5">
-        <v>45386.4166666667</v>
+        <v>45386.416666666701</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>8</v>
@@ -2607,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -2618,7 +1996,7 @@
         <v>16</v>
       </c>
       <c r="D63" s="5">
-        <v>45386.4583333333</v>
+        <v>45386.458333333299</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>8</v>
@@ -2627,7 +2005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -2638,7 +2016,7 @@
         <v>16</v>
       </c>
       <c r="D64" s="5">
-        <v>45386.4583333333</v>
+        <v>45386.458333333299</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>8</v>
@@ -2647,7 +2025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -2658,7 +2036,7 @@
         <v>16</v>
       </c>
       <c r="D65" s="5">
-        <v>45386.4583333333</v>
+        <v>45386.458333333299</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>8</v>
@@ -2667,7 +2045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -2678,7 +2056,7 @@
         <v>24</v>
       </c>
       <c r="D66" s="5">
-        <v>45386.4583333333</v>
+        <v>45386.458333333299</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
@@ -2687,7 +2065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -2707,7 +2085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -2727,7 +2105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -2747,7 +2125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -2767,7 +2145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -2787,7 +2165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -2807,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -2818,7 +2196,7 @@
         <v>27</v>
       </c>
       <c r="D73" s="5">
-        <v>45386.5416666667</v>
+        <v>45386.541666666701</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>8</v>
@@ -2827,7 +2205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -2838,7 +2216,7 @@
         <v>27</v>
       </c>
       <c r="D74" s="5">
-        <v>45386.5416666667</v>
+        <v>45386.541666666701</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>14</v>
@@ -2847,7 +2225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -2858,7 +2236,7 @@
         <v>16</v>
       </c>
       <c r="D75" s="5">
-        <v>45386.5416666088</v>
+        <v>45386.541666608799</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>8</v>
@@ -2867,7 +2245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -2878,7 +2256,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="5">
-        <v>45386.5416666088</v>
+        <v>45386.541666608799</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
@@ -2887,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -2898,7 +2276,7 @@
         <v>16</v>
       </c>
       <c r="D77" s="5">
-        <v>45386.5416666088</v>
+        <v>45386.541666608799</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>8</v>
@@ -2907,7 +2285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -2918,7 +2296,7 @@
         <v>7</v>
       </c>
       <c r="D78" s="5">
-        <v>45386.5416666088</v>
+        <v>45386.541666608799</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>8</v>
@@ -2927,7 +2305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -2938,7 +2316,7 @@
         <v>7</v>
       </c>
       <c r="D79" s="5">
-        <v>45386.5833333333</v>
+        <v>45386.583333333299</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>8</v>
@@ -2947,7 +2325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -2958,7 +2336,7 @@
         <v>7</v>
       </c>
       <c r="D80" s="5">
-        <v>45386.5833333333</v>
+        <v>45386.583333333299</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>8</v>
@@ -2967,7 +2345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -2978,7 +2356,7 @@
         <v>7</v>
       </c>
       <c r="D81" s="5">
-        <v>45386.5833333333</v>
+        <v>45386.583333333299</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>8</v>
@@ -2987,7 +2365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -2998,7 +2376,7 @@
         <v>7</v>
       </c>
       <c r="D82" s="5">
-        <v>45386.5833333333</v>
+        <v>45386.583333333299</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>8</v>
@@ -3007,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -3018,7 +2396,7 @@
         <v>7</v>
       </c>
       <c r="D83" s="5">
-        <v>45386.5833333333</v>
+        <v>45386.583333333299</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>8</v>
@@ -3027,7 +2405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -3038,7 +2416,7 @@
         <v>7</v>
       </c>
       <c r="D84" s="5">
-        <v>45386.5833333333</v>
+        <v>45386.583333333299</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>8</v>
@@ -3047,7 +2425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -3067,7 +2445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -3087,7 +2465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -3107,7 +2485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -3127,7 +2505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -3147,7 +2525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -3167,7 +2545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -3187,7 +2565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -3198,7 +2576,7 @@
         <v>7</v>
       </c>
       <c r="D92" s="5">
-        <v>45386.6666666667</v>
+        <v>45386.666666666701</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>8</v>
@@ -3207,7 +2585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -3218,7 +2596,7 @@
         <v>16</v>
       </c>
       <c r="D93" s="5">
-        <v>45386.6666666667</v>
+        <v>45386.666666666701</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -3227,7 +2605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -3238,7 +2616,7 @@
         <v>16</v>
       </c>
       <c r="D94" s="5">
-        <v>45386.6666666088</v>
+        <v>45386.666666608799</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>8</v>
@@ -3247,7 +2625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -3258,7 +2636,7 @@
         <v>16</v>
       </c>
       <c r="D95" s="5">
-        <v>45386.6666666088</v>
+        <v>45386.666666608799</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>14</v>
@@ -3267,7 +2645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -3278,7 +2656,7 @@
         <v>16</v>
       </c>
       <c r="D96" s="5">
-        <v>45386.6666666088</v>
+        <v>45386.666666608799</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>8</v>
@@ -3287,7 +2665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -3298,7 +2676,7 @@
         <v>16</v>
       </c>
       <c r="D97" s="5">
-        <v>45386.6666666088</v>
+        <v>45386.666666608799</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>8</v>
@@ -3307,7 +2685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -3318,7 +2696,7 @@
         <v>24</v>
       </c>
       <c r="D98" s="5">
-        <v>45386.7083333333</v>
+        <v>45386.708333333299</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>8</v>
@@ -3327,7 +2705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -3338,7 +2716,7 @@
         <v>18</v>
       </c>
       <c r="D99" s="5">
-        <v>45386.7083333333</v>
+        <v>45386.708333333299</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>8</v>
@@ -3347,7 +2725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -3358,7 +2736,7 @@
         <v>18</v>
       </c>
       <c r="D100" s="5">
-        <v>45386.7083333333</v>
+        <v>45386.708333333299</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>8</v>
@@ -3367,11 +2745,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="4:4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D101" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>